--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2197724.721085811</v>
+        <v>-2200645.966070062</v>
       </c>
     </row>
     <row r="7">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10.05797398556983</v>
       </c>
       <c r="E5" t="n">
-        <v>34.88448735196221</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>34.88448735196221</v>
+        <v>13.79223673232705</v>
       </c>
       <c r="H5" t="n">
-        <v>34.88448735196221</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="X5" t="n">
-        <v>23.85021071789688</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.88448735196221</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34.88448735196221</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>30.72625645960832</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>34.88448735196221</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>34.88448735196221</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>30.72625645960832</v>
       </c>
       <c r="S7" t="n">
-        <v>34.88448735196221</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="V7" t="n">
-        <v>30.72625645960832</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.88448735196221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>47.30462437689065</v>
       </c>
       <c r="G8" t="n">
-        <v>13.46317442462584</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>34.31466295695061</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>61.28006716750396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="C9" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>81.61928733384129</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>35.02003772275614</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>92.66494928910228</v>
+        <v>46.59924961108516</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.61928733384124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>201.6086852141646</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>11.26664236074106</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>118.9901385224125</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>176.8083075315215</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469698</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.55192222113551</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>88.544528901685</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674405</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.6576746544297</v>
+        <v>18.15147957520988</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>19.83358525651088</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,7 +1853,7 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894981</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
         <v>378.5542040247498</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453014</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453026</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T27" t="n">
         <v>189.0833237787849</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221574</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707151</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3487,10 +3487,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,7 +3715,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
         <v>186.4872700401421</v>
@@ -3961,7 +3961,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998809</v>
@@ -3977,7 +3977,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -3986,10 +3986,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
         <v>255.2416659947559</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262546</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4189,13 +4189,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.4468274705793</v>
+        <v>69.06423758570298</v>
       </c>
       <c r="C5" t="n">
-        <v>115.4468274705793</v>
+        <v>33.82738167463003</v>
       </c>
       <c r="D5" t="n">
-        <v>115.4468274705793</v>
+        <v>23.66781199223626</v>
       </c>
       <c r="E5" t="n">
-        <v>80.20997155950631</v>
+        <v>23.66781199223626</v>
       </c>
       <c r="F5" t="n">
-        <v>73.26447081030284</v>
+        <v>16.72231124303279</v>
       </c>
       <c r="G5" t="n">
-        <v>38.02761489922991</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="H5" t="n">
-        <v>2.790758988156977</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="I5" t="n">
-        <v>2.790758988156977</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="J5" t="n">
-        <v>2.790758988156977</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="K5" t="n">
-        <v>37.32640146659956</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="L5" t="n">
-        <v>39.90231940645566</v>
+        <v>5.366676928013142</v>
       </c>
       <c r="M5" t="n">
-        <v>74.43796188489821</v>
+        <v>39.90231940645575</v>
       </c>
       <c r="N5" t="n">
-        <v>108.9736043633408</v>
+        <v>74.43796188489836</v>
       </c>
       <c r="O5" t="n">
-        <v>133.1337399375187</v>
+        <v>105.0023069294063</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1337399375187</v>
+        <v>139.5379494078489</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.5379494078488</v>
+        <v>139.5379494078489</v>
       </c>
       <c r="R5" t="n">
-        <v>139.5379494078488</v>
+        <v>104.3010934967759</v>
       </c>
       <c r="S5" t="n">
-        <v>139.5379494078488</v>
+        <v>104.3010934967759</v>
       </c>
       <c r="T5" t="n">
-        <v>139.5379494078488</v>
+        <v>104.3010934967759</v>
       </c>
       <c r="U5" t="n">
-        <v>139.5379494078488</v>
+        <v>104.3010934967759</v>
       </c>
       <c r="V5" t="n">
-        <v>139.5379494078488</v>
+        <v>104.3010934967759</v>
       </c>
       <c r="W5" t="n">
-        <v>139.5379494078488</v>
+        <v>69.06423758570298</v>
       </c>
       <c r="X5" t="n">
-        <v>115.4468274705793</v>
+        <v>69.06423758570298</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.4468274705793</v>
+        <v>69.06423758570298</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.02761489922991</v>
+        <v>108.5013267213758</v>
       </c>
       <c r="C6" t="n">
-        <v>38.02761489922991</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="D6" t="n">
-        <v>38.02761489922991</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="E6" t="n">
-        <v>38.02761489922991</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="F6" t="n">
-        <v>38.02761489922991</v>
+        <v>38.02761489922993</v>
       </c>
       <c r="G6" t="n">
-        <v>38.02761489922991</v>
+        <v>38.02761489922993</v>
       </c>
       <c r="H6" t="n">
-        <v>2.790758988156977</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="I6" t="n">
-        <v>2.790758988156977</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="J6" t="n">
-        <v>2.790758988156977</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988156977</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="L6" t="n">
-        <v>37.32640146659956</v>
+        <v>37.32640146659958</v>
       </c>
       <c r="M6" t="n">
-        <v>71.86204394504213</v>
+        <v>71.86204394504217</v>
       </c>
       <c r="N6" t="n">
-        <v>106.3976864234847</v>
+        <v>106.3976864234848</v>
       </c>
       <c r="O6" t="n">
-        <v>139.5379494078488</v>
+        <v>119.3872152366671</v>
       </c>
       <c r="P6" t="n">
-        <v>139.5379494078488</v>
+        <v>139.5379494078489</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.5379494078488</v>
+        <v>139.5379494078489</v>
       </c>
       <c r="R6" t="n">
+        <v>139.5379494078489</v>
+      </c>
+      <c r="S6" t="n">
+        <v>139.5379494078489</v>
+      </c>
+      <c r="T6" t="n">
+        <v>139.5379494078489</v>
+      </c>
+      <c r="U6" t="n">
+        <v>139.5379494078489</v>
+      </c>
+      <c r="V6" t="n">
+        <v>139.5379494078489</v>
+      </c>
+      <c r="W6" t="n">
+        <v>139.5379494078489</v>
+      </c>
+      <c r="X6" t="n">
         <v>108.5013267213758</v>
       </c>
-      <c r="S6" t="n">
+      <c r="Y6" t="n">
         <v>108.5013267213758</v>
-      </c>
-      <c r="T6" t="n">
-        <v>108.5013267213758</v>
-      </c>
-      <c r="U6" t="n">
-        <v>108.5013267213758</v>
-      </c>
-      <c r="V6" t="n">
-        <v>73.26447081030284</v>
-      </c>
-      <c r="W6" t="n">
-        <v>73.26447081030284</v>
-      </c>
-      <c r="X6" t="n">
-        <v>73.26447081030284</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>73.26447081030284</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.02761489922991</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790758988156977</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="D7" t="n">
-        <v>2.790758988156977</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="E7" t="n">
-        <v>2.790758988156977</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790758988156977</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790758988156977</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988156977</v>
+        <v>38.02761489922993</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988156977</v>
+        <v>38.02761489922993</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988156977</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="K7" t="n">
-        <v>37.32640146659956</v>
+        <v>2.790758988156978</v>
       </c>
       <c r="L7" t="n">
-        <v>37.32640146659956</v>
+        <v>37.32640146659958</v>
       </c>
       <c r="M7" t="n">
-        <v>71.86204394504213</v>
+        <v>71.86204394504217</v>
       </c>
       <c r="N7" t="n">
-        <v>106.3976864234847</v>
+        <v>105.0023069294063</v>
       </c>
       <c r="O7" t="n">
-        <v>139.5379494078488</v>
+        <v>139.5379494078489</v>
       </c>
       <c r="P7" t="n">
-        <v>139.5379494078488</v>
+        <v>139.5379494078489</v>
       </c>
       <c r="Q7" t="n">
-        <v>139.5379494078488</v>
+        <v>139.5379494078489</v>
       </c>
       <c r="R7" t="n">
-        <v>139.5379494078488</v>
+        <v>108.5013267213758</v>
       </c>
       <c r="S7" t="n">
-        <v>104.3010934967759</v>
+        <v>108.5013267213758</v>
       </c>
       <c r="T7" t="n">
-        <v>104.3010934967759</v>
+        <v>108.5013267213758</v>
       </c>
       <c r="U7" t="n">
-        <v>104.3010934967759</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="V7" t="n">
-        <v>73.26447081030284</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="W7" t="n">
-        <v>73.26447081030284</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="X7" t="n">
-        <v>73.26447081030284</v>
+        <v>73.26447081030288</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.02761489922991</v>
+        <v>73.26447081030288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1597805335745</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="C8" t="n">
-        <v>215.1597805335745</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="D8" t="n">
-        <v>121.5588216556934</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="E8" t="n">
-        <v>121.5588216556934</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="F8" t="n">
-        <v>114.6133209064899</v>
+        <v>194.6151136988904</v>
       </c>
       <c r="G8" t="n">
         <v>101.0141548210093</v>
@@ -4799,22 +4799,22 @@
         <v>101.0141548210093</v>
       </c>
       <c r="I8" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128182</v>
       </c>
       <c r="J8" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128182</v>
       </c>
       <c r="K8" t="n">
         <v>21.18357364821455</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940382</v>
+        <v>75.16870670940368</v>
       </c>
       <c r="M8" t="n">
-        <v>166.9070065056151</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N8" t="n">
-        <v>258.6453063018263</v>
+        <v>258.6453063018262</v>
       </c>
       <c r="O8" t="n">
         <v>337.6943058037295</v>
@@ -4826,28 +4826,28 @@
         <v>370.6597971564091</v>
       </c>
       <c r="R8" t="n">
-        <v>370.6597971564091</v>
+        <v>335.9985214423176</v>
       </c>
       <c r="S8" t="n">
-        <v>370.6597971564091</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="T8" t="n">
-        <v>370.6597971564091</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="U8" t="n">
-        <v>370.6597971564091</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="V8" t="n">
-        <v>370.6597971564091</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="W8" t="n">
-        <v>277.058838278528</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="X8" t="n">
-        <v>277.058838278528</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="Y8" t="n">
-        <v>215.1597805335745</v>
+        <v>242.3975625644365</v>
       </c>
     </row>
     <row r="9">
@@ -4869,34 +4869,34 @@
         <v>101.0141548210093</v>
       </c>
       <c r="F9" t="n">
-        <v>7.413195943128183</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="G9" t="n">
-        <v>7.413195943128183</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="H9" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128182</v>
       </c>
       <c r="I9" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128182</v>
       </c>
       <c r="J9" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128182</v>
       </c>
       <c r="K9" t="n">
-        <v>7.413195943128183</v>
+        <v>28.29609765201167</v>
       </c>
       <c r="L9" t="n">
-        <v>43.08143125983021</v>
+        <v>102.6982772648968</v>
       </c>
       <c r="M9" t="n">
-        <v>134.8197310560415</v>
+        <v>134.8197310560414</v>
       </c>
       <c r="N9" t="n">
         <v>226.5580308522527</v>
       </c>
       <c r="O9" t="n">
-        <v>317.2247932514008</v>
+        <v>317.2247932514007</v>
       </c>
       <c r="P9" t="n">
         <v>370.6597971564091</v>
@@ -4911,19 +4911,19 @@
         <v>370.6597971564091</v>
       </c>
       <c r="T9" t="n">
-        <v>288.2160725767715</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="U9" t="n">
-        <v>288.2160725767715</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="V9" t="n">
-        <v>288.2160725767715</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="W9" t="n">
-        <v>288.2160725767715</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="X9" t="n">
-        <v>288.2160725767715</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="Y9" t="n">
         <v>288.2160725767715</v>
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.0141548210093</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="C10" t="n">
-        <v>101.0141548210093</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="D10" t="n">
-        <v>101.0141548210093</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="E10" t="n">
-        <v>101.0141548210093</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="F10" t="n">
-        <v>101.0141548210093</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="G10" t="n">
-        <v>101.0141548210093</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="H10" t="n">
-        <v>101.0141548210093</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="I10" t="n">
-        <v>7.413195943128183</v>
+        <v>42.78697142065963</v>
       </c>
       <c r="J10" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128182</v>
       </c>
       <c r="K10" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128182</v>
       </c>
       <c r="L10" t="n">
-        <v>7.413195943128183</v>
+        <v>95.44489776777533</v>
       </c>
       <c r="M10" t="n">
-        <v>99.15149573933944</v>
+        <v>187.1831975639866</v>
       </c>
       <c r="N10" t="n">
-        <v>190.8897955355507</v>
+        <v>278.9214973601978</v>
       </c>
       <c r="O10" t="n">
-        <v>278.9214973601979</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="P10" t="n">
         <v>370.6597971564091</v>
@@ -4984,28 +4984,28 @@
         <v>370.6597971564091</v>
       </c>
       <c r="R10" t="n">
-        <v>370.6597971564091</v>
+        <v>277.058838278528</v>
       </c>
       <c r="S10" t="n">
-        <v>370.6597971564091</v>
+        <v>277.058838278528</v>
       </c>
       <c r="T10" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="U10" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="V10" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="W10" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="X10" t="n">
-        <v>183.4578794006469</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="Y10" t="n">
-        <v>101.0141548210093</v>
+        <v>136.3879302985407</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.624422581789</v>
+        <v>2209.232076102165</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1840.269559161753</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1482.003860555003</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1096.215607956759</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>685.2297031671512</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>270.1572530121477</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450754</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X11" t="n">
-        <v>2413.363594621723</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.224262645911</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507.5323442946291</v>
+        <v>766.8860590627162</v>
       </c>
       <c r="C13" t="n">
-        <v>507.5323442946291</v>
+        <v>597.9498761348093</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946291</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E13" t="n">
-        <v>359.619250712236</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5230,19 +5230,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>956.3144743361765</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W13" t="n">
-        <v>956.3144743361765</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X13" t="n">
-        <v>728.3249234381592</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="Y13" t="n">
-        <v>507.5323442946291</v>
+        <v>948.5345238929559</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1898.732143876766</v>
+        <v>2325.545057758603</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.769626936355</v>
+        <v>1956.582540818192</v>
       </c>
       <c r="D14" t="n">
-        <v>1171.503928329604</v>
+        <v>1598.316842211441</v>
       </c>
       <c r="E14" t="n">
-        <v>785.7156757313601</v>
+        <v>1212.528589613197</v>
       </c>
       <c r="F14" t="n">
-        <v>374.7297709417525</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="G14" t="n">
-        <v>374.7297709417525</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511626</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S14" t="n">
-        <v>4188.866991966787</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="T14" t="n">
-        <v>3986.237896000336</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="U14" t="n">
-        <v>3732.768616791465</v>
+        <v>4159.581530673302</v>
       </c>
       <c r="V14" t="n">
-        <v>3401.705729447894</v>
+        <v>3828.518643329731</v>
       </c>
       <c r="W14" t="n">
-        <v>3048.93707417778</v>
+        <v>3475.749988059617</v>
       </c>
       <c r="X14" t="n">
-        <v>2675.4713159167</v>
+        <v>3102.284229798537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2285.331983940888</v>
+        <v>2712.144897822725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J15" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L15" t="n">
-        <v>808.1559021931406</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M15" t="n">
-        <v>1357.07436680343</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N15" t="n">
-        <v>1934.929714729833</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O15" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281988</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.8428317358079</v>
+        <v>866.1959702777251</v>
       </c>
       <c r="C16" t="n">
-        <v>616.906648807901</v>
+        <v>697.2597873498182</v>
       </c>
       <c r="D16" t="n">
-        <v>466.7900093955652</v>
+        <v>547.1431479374825</v>
       </c>
       <c r="E16" t="n">
-        <v>318.8769158131721</v>
+        <v>399.2300543550894</v>
       </c>
       <c r="F16" t="n">
-        <v>171.9869683152618</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755868</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
         <v>396.9405013869778</v>
@@ -5458,28 +5458,28 @@
         <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.76693339754</v>
+        <v>2260.833797113924</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685725</v>
+        <v>2075.127885402108</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521729</v>
+        <v>2075.127885402108</v>
       </c>
       <c r="U16" t="n">
-        <v>1778.726620020203</v>
+        <v>1786.043735186473</v>
       </c>
       <c r="V16" t="n">
-        <v>1524.042131814316</v>
+        <v>1786.043735186473</v>
       </c>
       <c r="W16" t="n">
-        <v>1234.624961777355</v>
+        <v>1496.626565149512</v>
       </c>
       <c r="X16" t="n">
-        <v>1006.635410879338</v>
+        <v>1268.637014251495</v>
       </c>
       <c r="Y16" t="n">
-        <v>785.8428317358079</v>
+        <v>1047.844435107965</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
         <v>725.1782574796675</v>
@@ -5543,22 +5543,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5595,16 @@
         <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>301.7509472448904</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448904</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M18" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781582</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O18" t="n">
         <v>1934.929714729833</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039807</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897932</v>
@@ -5674,16 +5674,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443618</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902794</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313936</v>
@@ -5692,13 +5692,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127669</v>
@@ -5707,16 +5707,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511625</v>
@@ -5750,28 +5750,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
         <v>4249.020448755812</v>
@@ -5780,22 +5780,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L21" t="n">
-        <v>388.0214583249807</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M21" t="n">
-        <v>936.9399229352698</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N21" t="n">
-        <v>1514.795270861672</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O21" t="n">
-        <v>2021.200225809922</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2408.301781362078</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609051</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897932</v>
@@ -5908,34 +5908,34 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042803</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443629</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902804</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127669</v>
@@ -5969,34 +5969,34 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076851</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951463</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
         <v>2681.771598889756</v>
@@ -6005,16 +6005,16 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283566</v>
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.315654538067</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E25" t="n">
         <v>501.6849958039808</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6160,34 +6160,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597208</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352545</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254982</v>
@@ -6212,28 +6212,28 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
         <v>2681.771598889755</v>
@@ -6245,19 +6245,19 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S26" t="n">
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V26" t="n">
         <v>3496.71823738206</v>
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551806</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609045</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E28" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
@@ -6455,58 +6455,58 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>670.3561405779134</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1797.129953114605</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O30" t="n">
-        <v>2303.534908062855</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315384</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902778</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313935</v>
@@ -6640,13 +6640,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E32" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796676</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N32" t="n">
         <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J33" t="n">
-        <v>118.5947109415081</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>421.6357602913726</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L33" t="n">
-        <v>875.4343898857001</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M33" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G34" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
@@ -6862,46 +6862,46 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511584</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746739</v>
@@ -7008,7 +7008,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
         <v>84.98040897511625</v>
@@ -7017,25 +7017,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O36" t="n">
-        <v>2100.171002464469</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2487.272558016625</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502083</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477723</v>
+        <v>735.85573414777</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609028</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039783</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
@@ -7108,37 +7108,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796691</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162855</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511794</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
         <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J39" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L39" t="n">
-        <v>713.6174808275667</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M39" t="n">
-        <v>1262.535945437856</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N39" t="n">
-        <v>1840.391293364258</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O39" t="n">
-        <v>2346.796248312508</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902788</v>
@@ -7342,13 +7342,13 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7360,22 +7360,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>122.7666162271013</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>425.8076655769658</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>879.6062951712933</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>1428.524759781582</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039798</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F43" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897926</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7591,16 +7591,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7646,25 +7646,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K44" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767228</v>
@@ -7737,13 +7737,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7804,49 +7804,49 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8140,10 +8140,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M4" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N4" t="n">
         <v>37.63776203285606</v>
@@ -8216,7 +8216,7 @@
         <v>52.84403871183591</v>
       </c>
       <c r="K5" t="n">
-        <v>62.83297444582982</v>
+        <v>27.94848709386758</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6.468898454878826</v>
       </c>
       <c r="P5" t="n">
-        <v>14.02109506150086</v>
+        <v>48.90558241346304</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.65749691987121</v>
+        <v>59.18859846499225</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,7 +8295,7 @@
         <v>50.48147365804697</v>
       </c>
       <c r="K6" t="n">
-        <v>7.33661165351262</v>
+        <v>7.336611653512591</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.81713562156452</v>
+        <v>36.8171356215645</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>85.17774960337964</v>
+        <v>50.29326225141742</v>
       </c>
       <c r="L7" t="n">
-        <v>34.15018385078011</v>
+        <v>69.03467120274232</v>
       </c>
       <c r="M7" t="n">
         <v>67.59987304969628</v>
       </c>
       <c r="N7" t="n">
-        <v>58.88507944579369</v>
+        <v>57.47560520935078</v>
       </c>
       <c r="O7" t="n">
-        <v>76.16171615652902</v>
+        <v>77.5711903929719</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486396</v>
+        <v>55.78036510486395</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8614,19 +8614,19 @@
         <v>33.14412614092826</v>
       </c>
       <c r="L10" t="n">
-        <v>12.20519387026837</v>
+        <v>101.1261048042554</v>
       </c>
       <c r="M10" t="n">
         <v>102.2424199670269</v>
       </c>
       <c r="N10" t="n">
-        <v>94.07779426651247</v>
+        <v>94.07779426651244</v>
       </c>
       <c r="O10" t="n">
-        <v>110.74417358017</v>
+        <v>114.4882119352852</v>
       </c>
       <c r="P10" t="n">
-        <v>130.5930368654883</v>
+        <v>37.92808757638605</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>226.877616132707</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>29.42714949072835</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>92.99907917315582</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>358.464458317728</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>29.62533449579985</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>75.32933579230649</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605491</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.37842655403018</v>
+        <v>91.9303487751657</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>162.3900575150978</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.50619507921984</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>266.3597234569682</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.287947609147523e-12</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1300815.241338136</v>
+        <v>1300815.241338137</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77308.85321927613</v>
+        <v>77308.85321927612</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="D2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="E2" t="n">
+        <v>68199.41979418411</v>
+      </c>
+      <c r="F2" t="n">
+        <v>76674.31819513107</v>
+      </c>
+      <c r="G2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="H2" t="n">
         <v>82104.17698642834</v>
       </c>
-      <c r="E2" t="n">
-        <v>68199.4197941841</v>
-      </c>
-      <c r="F2" t="n">
-        <v>76674.31819513101</v>
-      </c>
-      <c r="G2" t="n">
-        <v>82104.1769864283</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>82104.17698642843</v>
       </c>
-      <c r="I2" t="n">
-        <v>82104.17698642828</v>
-      </c>
       <c r="J2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642825</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="M2" t="n">
         <v>82104.17698642827</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.17698642823</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.1769864283</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642828</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263725</v>
+        <v>56271.05156263731</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945532</v>
+        <v>88049.46972945525</v>
       </c>
       <c r="E3" t="n">
         <v>728470.1008399349</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963083</v>
+        <v>215052.1096963081</v>
       </c>
       <c r="G3" t="n">
         <v>25288.16188177113</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.126388037344441e-11</v>
+        <v>9.947598300641403e-11</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.150740799725</v>
+        <v>8978.150740799754</v>
       </c>
       <c r="L3" t="n">
         <v>39911.87677390392</v>
@@ -26399,13 +26399,13 @@
         <v>184096.0922694315</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578641</v>
+        <v>56542.2935957864</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26433,31 +26433,31 @@
         <v>45229.37087109615</v>
       </c>
       <c r="H4" t="n">
-        <v>45229.37087109614</v>
+        <v>45229.37087109612</v>
       </c>
       <c r="I4" t="n">
-        <v>45229.37087109623</v>
+        <v>45229.37087109608</v>
       </c>
       <c r="J4" t="n">
-        <v>45229.37087109625</v>
+        <v>45229.37087109616</v>
       </c>
       <c r="K4" t="n">
-        <v>45229.37087109616</v>
+        <v>45229.37087109605</v>
       </c>
       <c r="L4" t="n">
+        <v>45229.37087109612</v>
+      </c>
+      <c r="M4" t="n">
+        <v>45229.3708710961</v>
+      </c>
+      <c r="N4" t="n">
+        <v>45229.37087109609</v>
+      </c>
+      <c r="O4" t="n">
         <v>45229.37087109617</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>45229.37087109619</v>
-      </c>
-      <c r="N4" t="n">
-        <v>45229.37087109619</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45229.37087109614</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45229.37087109622</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097137</v>
+        <v>43939.64495097138</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
@@ -26479,7 +26479,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060703</v>
+        <v>92448.99600060702</v>
       </c>
       <c r="G5" t="n">
         <v>95106.4341021553</v>
@@ -26491,10 +26491,10 @@
         <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="K5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
         <v>95106.4341021553</v>
@@ -26503,10 +26503,10 @@
         <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215528</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-607623.2050911258</v>
+        <v>-607743.0881853047</v>
       </c>
       <c r="C6" t="n">
-        <v>-358064.5924693372</v>
+        <v>-358064.5924693373</v>
       </c>
       <c r="D6" t="n">
-        <v>-367212.4843502196</v>
+        <v>-367212.4843502195</v>
       </c>
       <c r="E6" t="n">
-        <v>-748617.0324643218</v>
+        <v>-748964.6513941278</v>
       </c>
       <c r="F6" t="n">
-        <v>-244986.2732906604</v>
+        <v>-245122.0197604426</v>
       </c>
       <c r="G6" t="n">
-        <v>-83519.78986859428</v>
+        <v>-83519.78986859426</v>
       </c>
       <c r="H6" t="n">
-        <v>-58231.62798682298</v>
+        <v>-58231.62798682308</v>
       </c>
       <c r="I6" t="n">
-        <v>-58231.62798682329</v>
+        <v>-58231.62798682287</v>
       </c>
       <c r="J6" t="n">
-        <v>-58231.6279868233</v>
+        <v>-58231.62798682317</v>
       </c>
       <c r="K6" t="n">
-        <v>-67209.77872762294</v>
+        <v>-67209.77872762283</v>
       </c>
       <c r="L6" t="n">
-        <v>-98143.50476072702</v>
+        <v>-98143.50476072694</v>
       </c>
       <c r="M6" t="n">
-        <v>-242327.7202562547</v>
+        <v>-242327.7202562546</v>
       </c>
       <c r="N6" t="n">
-        <v>-114773.9215826096</v>
+        <v>-114773.9215826094</v>
       </c>
       <c r="O6" t="n">
         <v>-58231.62798682311</v>
       </c>
       <c r="P6" t="n">
-        <v>-58231.62798682322</v>
+        <v>-58231.6279868233</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>31.61020235221388</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="M2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221395</v>
-      </c>
       <c r="O2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196221</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="D4" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26926,28 +26926,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>1.243449787580175e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.592326932761353e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,16 +26960,16 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432531</v>
+        <v>49.41884193432537</v>
       </c>
       <c r="D3" t="n">
-        <v>81.854249040676</v>
+        <v>81.85424904067594</v>
       </c>
       <c r="E3" t="n">
         <v>632.1853818291327</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268249</v>
+        <v>188.3831700268247</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196221</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="D4" t="n">
-        <v>57.78046193714009</v>
+        <v>57.78046193714005</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866603</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196188</v>
+        <v>34.88448735196199</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714044</v>
+        <v>57.7804619371405</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131902</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866605</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>1.243449787580175e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196221</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714009</v>
+        <v>57.78046193714005</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866603</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>67.46474657889404</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>179.1266962566148</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>122.363352584706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S3" t="n">
         <v>158.6458343615066</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4025366526095</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.9953819045248</v>
+        <v>127.5682324137964</v>
       </c>
       <c r="I4" t="n">
-        <v>137.7543979186262</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.75628081312638</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.88799085553058</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>150.8348675305268</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>213.761646517762</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4313342305617</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2869324816264</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>330.3884044190453</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>344.6250676351131</v>
       </c>
       <c r="E5" t="n">
-        <v>347.0458827202996</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>378.9077493803649</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>289.1208986218725</v>
+        <v>324.0053859738347</v>
       </c>
       <c r="I5" t="n">
         <v>152.2423081412005</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.98512314308674</v>
+        <v>20.1006357911245</v>
       </c>
       <c r="S5" t="n">
         <v>174.5995329980081</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>314.3564813654508</v>
       </c>
       <c r="X5" t="n">
-        <v>345.8808899605722</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.6486962979051</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>137.8240116363535</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,13 +27704,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>110.1847250414217</v>
       </c>
       <c r="G6" t="n">
         <v>136.5353279943714</v>
       </c>
       <c r="H6" t="n">
-        <v>69.54555096442931</v>
+        <v>69.5455509644293</v>
       </c>
       <c r="I6" t="n">
         <v>61.57082155585476</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>19.25295543826386</v>
+        <v>49.97921189787218</v>
       </c>
       <c r="S6" t="n">
         <v>156.6714117615833</v>
@@ -27752,13 +27752,13 @@
         <v>225.8882117409196</v>
       </c>
       <c r="V6" t="n">
-        <v>197.9160997974631</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>175.0467287438692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>132.3623337466656</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3134207081377</v>
       </c>
       <c r="H7" t="n">
-        <v>156.2030601436761</v>
+        <v>121.3185727917139</v>
       </c>
       <c r="I7" t="n">
         <v>135.0744384248763</v>
       </c>
       <c r="J7" t="n">
-        <v>45.45578353897478</v>
+        <v>10.57129618701255</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.42574572344746</v>
+        <v>29.42574572344745</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090977</v>
+        <v>116.1016341494894</v>
       </c>
       <c r="S7" t="n">
-        <v>177.3241112971424</v>
+        <v>212.2085986491046</v>
       </c>
       <c r="T7" t="n">
         <v>225.0505661041825</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2820716119279</v>
+        <v>251.3975842599657</v>
       </c>
       <c r="V7" t="n">
-        <v>221.4113868642197</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.7001660001326</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>262.0180923315806</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>359.5714213648208</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H8" t="n">
         <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>46.89118423444737</v>
+        <v>46.89118423444738</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>34.31466295695061</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>167.1010256612668</v>
+        <v>74.43607637216448</v>
       </c>
       <c r="T8" t="n">
         <v>215.0431621354273</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>256.5760194283107</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>324.9578714885496</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.86823436076506</v>
+        <v>73.86823436076507</v>
       </c>
       <c r="C9" t="n">
-        <v>80.04354969921346</v>
+        <v>80.04354969921347</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,13 +27941,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>52.4042631042816</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.3592641379443</v>
       </c>
       <c r="H9" t="n">
-        <v>102.729632124056</v>
+        <v>10.0646828349537</v>
       </c>
       <c r="I9" t="n">
         <v>55.50897386746507</v>
@@ -27983,7 +27983,7 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T9" t="n">
-        <v>114.5782109652797</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U9" t="n">
         <v>225.8766285924705</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>124.0634084434631</v>
       </c>
     </row>
     <row r="10">
@@ -28029,10 +28029,10 @@
         <v>154.8907084131551</v>
       </c>
       <c r="I10" t="n">
-        <v>37.97057346648617</v>
+        <v>37.97057346648619</v>
       </c>
       <c r="J10" t="n">
-        <v>35.02003772275614</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>17.06575411830538</v>
       </c>
       <c r="R10" t="n">
-        <v>140.1909870721275</v>
+        <v>47.52603778302522</v>
       </c>
       <c r="S10" t="n">
         <v>209.6362282325312</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>133.0447060999349</v>
+        <v>179.110405777952</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.9653660182535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28819,7 +28819,7 @@
         <v>31.61020235221388</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>31.61020235221388</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221569</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K22" t="n">
         <v>31.61020235221388</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221694</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221379</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221292</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221582</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605322</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221309</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221253</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I2" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J2" t="n">
         <v>111.3401072796808</v>
@@ -31072,7 +31072,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R2" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S2" t="n">
         <v>29.89337332963048</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H3" t="n">
         <v>6.778799411242828</v>
@@ -31151,7 +31151,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R3" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S3" t="n">
         <v>13.03733674233122</v>
@@ -31200,7 +31200,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H4" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I4" t="n">
         <v>17.69607700863206</v>
@@ -31212,10 +31212,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L4" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M4" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N4" t="n">
         <v>90.04778243237713</v>
@@ -31279,28 +31279,28 @@
         <v>1.510500782807997</v>
       </c>
       <c r="H5" t="n">
-        <v>15.4694161419324</v>
+        <v>15.46941614193241</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920537</v>
+        <v>58.23358142920538</v>
       </c>
       <c r="J5" t="n">
         <v>128.2018658148504</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511129</v>
+        <v>192.141363951113</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829732</v>
+        <v>238.3683522829733</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792349</v>
+        <v>265.230720579235</v>
       </c>
       <c r="N5" t="n">
         <v>264.2975509485531</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693411</v>
+        <v>254.5023887693412</v>
       </c>
       <c r="P5" t="n">
         <v>217.2119006937687</v>
@@ -31309,13 +31309,13 @@
         <v>163.1170914094572</v>
       </c>
       <c r="R5" t="n">
-        <v>94.88399479806294</v>
+        <v>94.88399479806296</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823727</v>
+        <v>34.42053658823728</v>
       </c>
       <c r="T5" t="n">
-        <v>6.612217176742011</v>
+        <v>6.612217176742012</v>
       </c>
       <c r="U5" t="n">
         <v>0.1208400626246398</v>
@@ -31355,10 +31355,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.808189168839204</v>
+        <v>0.8081891688392041</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104945</v>
+        <v>7.805405920104946</v>
       </c>
       <c r="I6" t="n">
         <v>27.82581129556032</v>
@@ -31379,25 +31379,25 @@
         <v>166.2261994352955</v>
       </c>
       <c r="O6" t="n">
-        <v>176.0712575599638</v>
+        <v>155.7169806193761</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>154.3286843549179</v>
       </c>
       <c r="Q6" t="n">
         <v>103.164638464457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477095</v>
+        <v>50.17862225477096</v>
       </c>
       <c r="S6" t="n">
-        <v>15.0117593422545</v>
+        <v>15.01175934225451</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715913</v>
+        <v>3.257569500715914</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521081</v>
+        <v>0.05317034005521082</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210467</v>
+        <v>0.6775586503210468</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763493</v>
+        <v>6.024112363763494</v>
       </c>
       <c r="I7" t="n">
         <v>20.37603650238203</v>
@@ -31446,7 +31446,7 @@
         <v>47.903396577698</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911795</v>
+        <v>78.71999591911796</v>
       </c>
       <c r="L7" t="n">
         <v>100.7344924304582</v>
@@ -31458,22 +31458,22 @@
         <v>103.6849523714017</v>
       </c>
       <c r="O7" t="n">
-        <v>95.76983541083308</v>
+        <v>95.7698354108331</v>
       </c>
       <c r="P7" t="n">
-        <v>81.94763894428365</v>
+        <v>81.94763894428367</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824692</v>
+        <v>56.73629752824694</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807178</v>
+        <v>30.46550076807179</v>
       </c>
       <c r="S7" t="n">
         <v>11.80799938786769</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324099017</v>
+        <v>2.895023324099018</v>
       </c>
       <c r="U7" t="n">
         <v>0.03695774456296623</v>
@@ -31604,13 +31604,13 @@
         <v>92.99032639149898</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L9" t="n">
-        <v>174.5829003017954</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111206</v>
+        <v>174.5799468423664</v>
       </c>
       <c r="N9" t="n">
         <v>224.0066613724356</v>
@@ -31990,46 +31990,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I14" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O14" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R14" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,37 +32069,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L15" t="n">
-        <v>430.0264422644096</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879671</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>555.1640776830025</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691328</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486998</v>
@@ -32151,7 +32151,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838147</v>
@@ -32160,13 +32160,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
         <v>325.7840929246177</v>
@@ -32181,10 +32181,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32315,19 +32315,19 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K18" t="n">
-        <v>223.8954149958786</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
         <v>696.5971294879671</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160632</v>
+        <v>548.1235910649142</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>524.9860796892352</v>
@@ -32464,46 +32464,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I20" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R20" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001642</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q21" t="n">
-        <v>263.7973608852034</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32625,7 +32625,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838147</v>
@@ -32634,13 +32634,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O22" t="n">
         <v>325.7840929246177</v>
@@ -32655,10 +32655,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I23" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>272.5760810583988</v>
       </c>
       <c r="O24" t="n">
-        <v>559.3781234260266</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,40 +32862,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I26" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L26" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R26" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T26" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>457.1748150187223</v>
+        <v>254.1392278303028</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T27" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,40 +33099,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J28" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K28" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P28" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q28" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R28" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33175,46 +33175,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I29" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R29" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T29" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,37 +33254,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001642</v>
       </c>
       <c r="P30" t="n">
-        <v>152.6576015750712</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33336,7 +33336,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838147</v>
@@ -33345,13 +33345,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O31" t="n">
         <v>325.7840929246177</v>
@@ -33366,10 +33366,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33412,46 +33412,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H32" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I32" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R32" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S32" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T32" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,34 +33491,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H33" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J33" t="n">
-        <v>160.7914670367595</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N33" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001642</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33573,7 +33573,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I34" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J34" t="n">
         <v>162.9549067838147</v>
@@ -33582,13 +33582,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L34" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M34" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N34" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O34" t="n">
         <v>325.7840929246177</v>
@@ -33603,10 +33603,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33649,46 +33649,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H35" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I35" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R35" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S35" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T35" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,37 +33728,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H36" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K36" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>211.6584993001642</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q36" t="n">
-        <v>184.0288996179841</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33810,7 +33810,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I37" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J37" t="n">
         <v>162.9549067838147</v>
@@ -33819,13 +33819,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L37" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M37" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N37" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O37" t="n">
         <v>325.7840929246177</v>
@@ -33840,10 +33840,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33886,46 +33886,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I38" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R38" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T38" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,34 +33965,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J39" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K39" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L39" t="n">
-        <v>334.5330873496886</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001642</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34047,7 +34047,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I40" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J40" t="n">
         <v>162.9549067838147</v>
@@ -34056,13 +34056,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O40" t="n">
         <v>325.7840929246177</v>
@@ -34077,10 +34077,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34153,7 +34153,7 @@
         <v>554.8819566972012</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581568</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J42" t="n">
-        <v>165.0055127797829</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
         <v>443.9435090247271</v>
@@ -34220,19 +34220,19 @@
         <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P42" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34457,16 +34457,16 @@
         <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>573.1387203886723</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P45" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>34.88448735196221</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.601937312985967</v>
+        <v>2.601937312986024</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196218</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196221</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765441</v>
+        <v>30.87307580253326</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.468898454878948</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.88448735196221</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196221</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="N6" t="n">
-        <v>34.88448735196221</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="O6" t="n">
-        <v>33.47501311551931</v>
+        <v>13.12073617493168</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>20.35427694058762</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>34.88448735196221</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="M7" t="n">
-        <v>34.88448735196221</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="N7" t="n">
-        <v>34.88448735196221</v>
+        <v>33.47501311551931</v>
       </c>
       <c r="O7" t="n">
-        <v>33.47501311551931</v>
+        <v>34.88448735196222</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>92.66494928910228</v>
       </c>
       <c r="N8" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="O8" t="n">
         <v>79.84747424434667</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>21.09384010998332</v>
       </c>
       <c r="L9" t="n">
-        <v>36.02852052192124</v>
+        <v>75.15371678069204</v>
       </c>
       <c r="M9" t="n">
-        <v>92.66494928910228</v>
+        <v>32.44591292034813</v>
       </c>
       <c r="N9" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="O9" t="n">
         <v>91.58258828196773</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>88.92091093398702</v>
       </c>
       <c r="M10" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="N10" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="O10" t="n">
-        <v>88.92091093398705</v>
+        <v>92.66494928910227</v>
       </c>
       <c r="P10" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L14" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R14" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L15" t="n">
-        <v>291.4720624845354</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659488</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>412.567833238558</v>
       </c>
       <c r="P15" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q15" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714192</v>
+        <v>69.59572666714189</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.262591229521</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M16" t="n">
-        <v>400.884051537296</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
         <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386574</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
         <v>276.043131703092</v>
@@ -35963,19 +35963,19 @@
         <v>132.906163644919</v>
       </c>
       <c r="K18" t="n">
-        <v>86.05397602151957</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327299</v>
+        <v>416.7818789815809</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133841</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>391.011672274905</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L20" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q21" t="n">
-        <v>123.8155867991819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193576</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116857</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>141.2343689750655</v>
       </c>
       <c r="O24" t="n">
-        <v>416.7818789815822</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
@@ -36531,10 +36531,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641612</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169886</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P26" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>315.040781096704</v>
+        <v>112.0051939082845</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381561</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440219</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="P30" t="n">
-        <v>18.68319416074092</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817338</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
         <v>432.4942538895099</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L32" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33.95384037009282</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K33" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
@@ -37236,13 +37236,13 @@
         <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010927</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q34" t="n">
         <v>138.4502995641581</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L35" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K36" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.04712553196261</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
@@ -37476,10 +37476,10 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.693819046862461e-12</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L38" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K39" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L39" t="n">
-        <v>195.9787075698144</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K40" t="n">
         <v>277.1256801414978</v>
@@ -37713,7 +37713,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908705</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37801,7 +37801,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>38.16788611311625</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
         <v>306.1020700503681</v>
@@ -37868,19 +37868,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.063527911684</v>
       </c>
       <c r="K44" t="n">
         <v>433.5251384721832</v>
@@ -38105,16 +38105,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>441.7970083053389</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
@@ -38181,7 +38181,7 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895085</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
@@ -38190,10 +38190,10 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
